--- a/public/import/daily fakhri.xlsx
+++ b/public/import/daily fakhri.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="59">
   <si>
     <t>date</t>
   </si>
@@ -78,18 +78,6 @@
     <t>break</t>
   </si>
   <si>
-    <t xml:space="preserve">08.30 review marketing with COO CEO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.00 Morning brief dengan TL DM dan TL Creative : training skill atau SOP kerja </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.40 review/optimasi fb ads all company yg berjalan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.00 meeting complete me marketing - hyangyu </t>
-  </si>
-  <si>
     <t xml:space="preserve">14.00 review google ads CS dan CM </t>
   </si>
   <si>
@@ -105,15 +93,9 @@
     <t>09.00 morn brief dengan TL digital marketing  dan TL Creative ; review KPI all team</t>
   </si>
   <si>
-    <t xml:space="preserve">10.00 review/optimasi fb ads all company yg berjalan  </t>
-  </si>
-  <si>
     <t xml:space="preserve">10.30 cek konten daily tiktok dan youtube cs juga random cek IG post all brand </t>
   </si>
   <si>
-    <t xml:space="preserve">11.00 meeting marketing complete me </t>
-  </si>
-  <si>
     <t>10:30</t>
   </si>
   <si>
@@ -147,61 +129,73 @@
     <t>15:00</t>
   </si>
   <si>
-    <t>08.30 Morning brief dengan COO dan all dev – bahas project weekly  done</t>
-  </si>
-  <si>
-    <t>09.00 Morning brief dengan TL Creative dan TL digital marketing : target fokus weekly done</t>
-  </si>
-  <si>
-    <t>11.30 cek konten daily tiktok dan youtube cs juga random cek IG post all brand done</t>
-  </si>
-  <si>
     <t>-----break-----</t>
   </si>
   <si>
-    <t>13.00 cek sellout CRM dan respon google map CS dan all company done</t>
-  </si>
-  <si>
-    <t>14.00 review google ads CS dan CM  dan random chat hr minggu done</t>
-  </si>
-  <si>
-    <t>15.30 random check reply comment IG, tiktok dan Youtube random company done</t>
-  </si>
-  <si>
-    <t>17.00 Report To Do List  done</t>
-  </si>
-  <si>
-    <t>review/optimasi fb ads all company yg berjalan done</t>
-  </si>
-  <si>
     <t>13:30</t>
   </si>
   <si>
     <t>susun project fokus daily</t>
   </si>
   <si>
-    <t>maintain ads toko surya</t>
-  </si>
-  <si>
     <t>09.00 Morning brief dengan TL DM dan TL Creative juga toko mas CM dan an an</t>
   </si>
   <si>
-    <t>2022-06-13</t>
-  </si>
-  <si>
-    <t>2022-06-14</t>
-  </si>
-  <si>
-    <t>2022-06-15</t>
-  </si>
-  <si>
-    <t>2022-06-16</t>
-  </si>
-  <si>
-    <t>2022-06-17</t>
-  </si>
-  <si>
-    <t>2022-06-18</t>
+    <t>13.00 meeting complete me marketing - hyangyu dan amazy</t>
+  </si>
+  <si>
+    <t>08.30 monitor project convertion</t>
+  </si>
+  <si>
+    <t>Morning brief dengan TL Creative dan TL digital marketing : target fokus weekly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morning brief dengan COO dan all dev – bahas project weekly </t>
+  </si>
+  <si>
+    <t>random cek optimasi fb ads all company</t>
+  </si>
+  <si>
+    <t>cek konten daily tiktok dan youtube cs juga random cek IG post all brand done</t>
+  </si>
+  <si>
+    <t>cek sellout CRM dan respon google map CS dan all company done</t>
+  </si>
+  <si>
+    <t>review google ads CS dan CM  dan random chat hr minggu done</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> random check reply comment IG, tiktok dan Youtube random company done</t>
+  </si>
+  <si>
+    <t>Report To Do List  done</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> review marketing with COO CEO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morning brief dengan TL DM dan TL Creative : training skill atau SOP kerja </t>
+  </si>
+  <si>
+    <t xml:space="preserve">random cek optimasi fb ads all company yg berjalan  </t>
+  </si>
+  <si>
+    <t>2022-08-22</t>
+  </si>
+  <si>
+    <t>2022-08-23</t>
+  </si>
+  <si>
+    <t>2022-08-24</t>
+  </si>
+  <si>
+    <t>2022-08-25</t>
+  </si>
+  <si>
+    <t>2022-08-26</t>
+  </si>
+  <si>
+    <t>2022-08-27</t>
   </si>
 </sst>
 </file>
@@ -552,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="A45" sqref="A45:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,10 +572,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -589,10 +583,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -600,10 +594,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
@@ -611,21 +605,21 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>13</v>
@@ -633,18 +627,18 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>47</v>
@@ -655,7 +649,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>48</v>
@@ -666,7 +660,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>49</v>
@@ -677,10 +671,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>3</v>
@@ -688,10 +682,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
@@ -699,10 +693,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>10</v>
@@ -710,18 +704,18 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
@@ -732,10 +726,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>14</v>
@@ -743,10 +737,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>15</v>
@@ -754,7 +748,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
@@ -765,10 +759,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>17</v>
@@ -776,420 +770,387 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
